--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H2">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I2">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J2">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N2">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q2">
-        <v>2.544983243020444</v>
+        <v>5.717357389395556</v>
       </c>
       <c r="R2">
-        <v>22.904849187184</v>
+        <v>51.45621650456</v>
       </c>
       <c r="S2">
-        <v>0.02075989203538033</v>
+        <v>0.03358373200157736</v>
       </c>
       <c r="T2">
-        <v>0.02075989203538033</v>
+        <v>0.03358373200157737</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H3">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I3">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J3">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>118.340805</v>
       </c>
       <c r="O3">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P3">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q3">
-        <v>26.64919217590667</v>
+        <v>45.16818696261667</v>
       </c>
       <c r="R3">
-        <v>239.84272958316</v>
+        <v>406.51368266355</v>
       </c>
       <c r="S3">
-        <v>0.2173823163351494</v>
+        <v>0.2653177303142193</v>
       </c>
       <c r="T3">
-        <v>0.2173823163351493</v>
+        <v>0.2653177303142193</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H4">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I4">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J4">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N4">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q4">
-        <v>17.79014307813955</v>
+        <v>33.30014145426111</v>
       </c>
       <c r="R4">
-        <v>160.111287703256</v>
+        <v>299.70127308835</v>
       </c>
       <c r="S4">
-        <v>0.1451174386350091</v>
+        <v>0.1956048835234269</v>
       </c>
       <c r="T4">
-        <v>0.1451174386350091</v>
+        <v>0.1956048835234269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.145036666666667</v>
+      </c>
+      <c r="H5">
+        <v>3.43511</v>
+      </c>
+      <c r="I5">
+        <v>0.4953865629219574</v>
+      </c>
+      <c r="J5">
+        <v>0.4953865629219574</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.6755706666666667</v>
-      </c>
-      <c r="H5">
-        <v>2.026712</v>
-      </c>
-      <c r="I5">
-        <v>0.3897021710091528</v>
-      </c>
-      <c r="J5">
-        <v>0.3897021710091528</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N5">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q5">
-        <v>0.7897977313182221</v>
+        <v>0.14984980353</v>
       </c>
       <c r="R5">
-        <v>7.108179581863999</v>
+        <v>1.34864823177</v>
       </c>
       <c r="S5">
-        <v>0.006442524003613999</v>
+        <v>0.000880217082733844</v>
       </c>
       <c r="T5">
-        <v>0.006442524003613998</v>
+        <v>0.0008802170827338441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H6">
         <v>1.414049</v>
       </c>
       <c r="I6">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J6">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N6">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O6">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P6">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q6">
-        <v>1.775649924513111</v>
+        <v>2.353526815478222</v>
       </c>
       <c r="R6">
-        <v>15.980849320618</v>
+        <v>21.181741339304</v>
       </c>
       <c r="S6">
-        <v>0.01448429997589076</v>
+        <v>0.0138246060979411</v>
       </c>
       <c r="T6">
-        <v>0.01448429997589076</v>
+        <v>0.01382460609794111</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H7">
         <v>1.414049</v>
       </c>
       <c r="I7">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J7">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>118.340805</v>
       </c>
       <c r="O7">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P7">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q7">
         <v>18.59329966327167</v>
@@ -883,10 +883,10 @@
         <v>167.339696969445</v>
       </c>
       <c r="S7">
-        <v>0.1516689332433033</v>
+        <v>0.1092169599323141</v>
       </c>
       <c r="T7">
-        <v>0.1516689332433032</v>
+        <v>0.1092169599323141</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H8">
         <v>1.414049</v>
       </c>
       <c r="I8">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J8">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N8">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O8">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P8">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q8">
-        <v>12.41228848968189</v>
+        <v>13.70786720752944</v>
       </c>
       <c r="R8">
-        <v>111.710596407137</v>
+        <v>123.370804867765</v>
       </c>
       <c r="S8">
-        <v>0.1012492988566683</v>
+        <v>0.08051995130910458</v>
       </c>
       <c r="T8">
-        <v>0.1012492988566683</v>
+        <v>0.0805199513091046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H9">
         <v>1.414049</v>
       </c>
       <c r="I9">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J9">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N9">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O9">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P9">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q9">
-        <v>0.5510465681225555</v>
+        <v>0.061685059527</v>
       </c>
       <c r="R9">
-        <v>4.959419113102999</v>
+        <v>0.555165535743</v>
       </c>
       <c r="S9">
-        <v>0.004494987262515035</v>
+        <v>0.0003623377666574605</v>
       </c>
       <c r="T9">
-        <v>0.004494987262515035</v>
+        <v>0.0003623377666574606</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H10">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I10">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J10">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N10">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O10">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P10">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q10">
-        <v>1.898907654365778</v>
+        <v>3.157288289904</v>
       </c>
       <c r="R10">
-        <v>17.090168889292</v>
+        <v>28.415594609136</v>
       </c>
       <c r="S10">
-        <v>0.01548973573712216</v>
+        <v>0.01854589744145142</v>
       </c>
       <c r="T10">
-        <v>0.01548973573712217</v>
+        <v>0.01854589744145143</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H11">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I11">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J11">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>118.340805</v>
       </c>
       <c r="O11">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P11">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q11">
-        <v>19.88396392953667</v>
+        <v>24.94316483307</v>
       </c>
       <c r="R11">
-        <v>178.95567536583</v>
+        <v>224.48848349763</v>
       </c>
       <c r="S11">
-        <v>0.1621971168355005</v>
+        <v>0.1465160398366408</v>
       </c>
       <c r="T11">
-        <v>0.1621971168355005</v>
+        <v>0.1465160398366409</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H12">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I12">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J12">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N12">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O12">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P12">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q12">
-        <v>13.27389441796422</v>
+        <v>18.38929062939</v>
       </c>
       <c r="R12">
-        <v>119.465049761678</v>
+        <v>165.50361566451</v>
       </c>
       <c r="S12">
-        <v>0.1082775754071089</v>
+        <v>0.1080186117701911</v>
       </c>
       <c r="T12">
-        <v>0.1082775754071089</v>
+        <v>0.1080186117701911</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H13">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I13">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J13">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N13">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O13">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P13">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q13">
-        <v>0.5892977729868887</v>
+        <v>0.082751347818</v>
       </c>
       <c r="R13">
-        <v>5.303679956881999</v>
+        <v>0.744762130362</v>
       </c>
       <c r="S13">
-        <v>0.004807009310355447</v>
+        <v>0.0004860810508441619</v>
       </c>
       <c r="T13">
-        <v>0.004807009310355448</v>
+        <v>0.000486081050844162</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H14">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I14">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J14">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N14">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O14">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P14">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q14">
-        <v>0.3110444104848889</v>
+        <v>0.3130315210773333</v>
       </c>
       <c r="R14">
-        <v>2.799399694364</v>
+        <v>2.817283689696</v>
       </c>
       <c r="S14">
-        <v>0.002537245931808652</v>
+        <v>0.001838745769401464</v>
       </c>
       <c r="T14">
-        <v>0.002537245931808652</v>
+        <v>0.001838745769401465</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H15">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I15">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J15">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>118.340805</v>
       </c>
       <c r="O15">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P15">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q15">
-        <v>3.257028231123333</v>
+        <v>2.47300724902</v>
       </c>
       <c r="R15">
-        <v>29.31325408011</v>
+        <v>22.25706524118</v>
       </c>
       <c r="S15">
-        <v>0.02656817274523917</v>
+        <v>0.0145264336357721</v>
       </c>
       <c r="T15">
-        <v>0.02656817274523916</v>
+        <v>0.0145264336357721</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H16">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I16">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J16">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N16">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O16">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P16">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q16">
-        <v>2.174287230125111</v>
+        <v>1.823218879206666</v>
       </c>
       <c r="R16">
-        <v>19.568585071126</v>
+        <v>16.40896991286</v>
       </c>
       <c r="S16">
-        <v>0.0177360571135756</v>
+        <v>0.0107095796273051</v>
       </c>
       <c r="T16">
-        <v>0.0177360571135756</v>
+        <v>0.01070957962730511</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.062692</v>
+      </c>
+      <c r="H17">
+        <v>0.188076</v>
+      </c>
+      <c r="I17">
+        <v>0.02712295187289783</v>
+      </c>
+      <c r="J17">
+        <v>0.02712295187289783</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="L17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G17">
-        <v>0.08256733333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.247702</v>
-      </c>
-      <c r="I17">
-        <v>0.0476288723623826</v>
-      </c>
-      <c r="J17">
-        <v>0.0476288723623826</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
       <c r="M17">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N17">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O17">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P17">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q17">
-        <v>0.09652801071044442</v>
+        <v>0.008204439348000001</v>
       </c>
       <c r="R17">
-        <v>0.8687520963939999</v>
+        <v>0.07383995413200001</v>
       </c>
       <c r="S17">
-        <v>0.0007873965717591816</v>
+        <v>4.819284041915701E-05</v>
       </c>
       <c r="T17">
-        <v>0.0007873965717591816</v>
+        <v>4.819284041915702E-05</v>
       </c>
     </row>
   </sheetData>
